--- a/public/storage/modelsExcel/student_model.xlsx
+++ b/public/storage/modelsExcel/student_model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SiaETEOT\public\storage\modelsExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECEB96-427D-46DB-A025-C8F579352316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC3CDC-B3B2-4969-B1A4-4CE417DBC456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,9 @@
     <t>sobrenome</t>
   </si>
   <si>
+    <t>e-mail</t>
+  </si>
+  <si>
     <t>senha</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
   </si>
   <si>
     <t>matrícula</t>
-  </si>
-  <si>
-    <t>email</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -493,97 +493,97 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
